--- a/РАБОЧИЙ СТОЛ/21,10,25 Ост КИ филиалы/проблемы.xlsx
+++ b/РАБОЧИЙ СТОЛ/21,10,25 Ост КИ филиалы/проблемы.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\21,10,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\21,10,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949C60C-72FD-4FB2-AE4D-480F44DA1008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B90C0D-D01E-4765-A1A3-E044DB696C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Бердянск</t>
   </si>
@@ -70,6 +64,21 @@
   </si>
   <si>
     <t>7149 БАЛЫКОВАЯ Коровино п/к в/у 0,84кг_50с  Останкино</t>
+  </si>
+  <si>
+    <t>Донецк</t>
+  </si>
+  <si>
+    <t>6448 Свинина Останкино 100г Мадера с/к в/у нарезка  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1,5*4_О_50с  Останкино</t>
+  </si>
+  <si>
+    <t>Мелитополь</t>
+  </si>
+  <si>
+    <t>6768 С СЫРОМ сос ц/о мгс 0,41кг 6шт  Останкино</t>
   </si>
 </sst>
 </file>
@@ -142,10 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{043AE842-5DE7-4507-A33E-AF07429EEDBA}"/>
@@ -427,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +552,114 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>73</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10.773</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
